--- a/Project Outputs for SCOM_BATTPACK/BOM/Bill of Materials-SCOM_BATTPACK.xlsx
+++ b/Project Outputs for SCOM_BATTPACK/BOM/Bill of Materials-SCOM_BATTPACK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vylt-my.sharepoint.com/personal/satyam_vylt_in/Documents/Altium_Designs/SCOM_BATTPACK/Project Outputs for SCOM_BATTPACK/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E882C6A7-88D6-4471-8A57-879D9A86976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E882C6A7-88D6-4471-8A57-879D9A86976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DB06F8-21C3-495F-A6E1-FC4DF47CC39C}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{4BC430F0-9762-47D7-ABCE-1E25539783A0}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>Manufacturer Part Number 1</t>
-  </si>
-  <si>
     <t>BAT1, BAT2</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>MM3Z15B</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B76828-8965-408D-942F-8B798CE67095}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -697,427 +699,427 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for SCOM_BATTPACK/BOM/Bill of Materials-SCOM_BATTPACK.xlsx
+++ b/Project Outputs for SCOM_BATTPACK/BOM/Bill of Materials-SCOM_BATTPACK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vylt-my.sharepoint.com/personal/satyam_vylt_in/Documents/Altium_Designs/SCOM_BATTPACK/Project Outputs for SCOM_BATTPACK/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E882C6A7-88D6-4471-8A57-879D9A86976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DB06F8-21C3-495F-A6E1-FC4DF47CC39C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4699CAB-059B-48FE-A6D8-88D13B199159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{4BC430F0-9762-47D7-ABCE-1E25539783A0}"/>
+    <workbookView xWindow="6840" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{1DD18C15-C8ED-47C9-981F-C26F2C87AE38}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SCOM_BATTPACK" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Designator</t>
   </si>
@@ -47,42 +47,39 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Manufacturer 1</t>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Footprint</t>
   </si>
   <si>
     <t>BAT1, BAT2</t>
   </si>
   <si>
-    <t>MPD</t>
-  </si>
-  <si>
     <t>BK-18650-PC4</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>Samsung Electro-Mechanics</t>
-  </si>
-  <si>
     <t>CL21C101JBANNNC</t>
   </si>
   <si>
+    <t>CAPC2012X13L</t>
+  </si>
+  <si>
     <t>C2, C8, C9</t>
   </si>
   <si>
-    <t>ROQANG</t>
-  </si>
-  <si>
     <t>RVT1E221M0607</t>
   </si>
   <si>
+    <t>CAP_6.3_7.7</t>
+  </si>
+  <si>
     <t>C3, C6</t>
   </si>
   <si>
-    <t>YAGEO</t>
-  </si>
-  <si>
     <t>GRM21BR61H106KE43L</t>
   </si>
   <si>
@@ -95,48 +92,45 @@
     <t>CELL1, CELL2</t>
   </si>
   <si>
-    <t>DMEGC</t>
-  </si>
-  <si>
     <t>18650 2600mAH</t>
   </si>
   <si>
     <t>D1, D2, D3, D4</t>
   </si>
   <si>
-    <t>MDD</t>
-  </si>
-  <si>
     <t>SS54C</t>
   </si>
   <si>
+    <t>DIOM6959X26L</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>Lian Xin Technology</t>
-  </si>
-  <si>
     <t>XDJK-0051-025</t>
   </si>
   <si>
+    <t>KLDX-0202-AC</t>
+  </si>
+  <si>
     <t>J2, J3, J4, J5, J6, J7, J8, J9, J10</t>
   </si>
   <si>
-    <t>XFCN</t>
-  </si>
-  <si>
     <t>PM254V-11-06-H85</t>
   </si>
   <si>
+    <t>6PX1R_F</t>
+  </si>
+  <si>
     <t>L1</t>
   </si>
   <si>
-    <t>Sumida</t>
-  </si>
-  <si>
     <t>CDRCH12D78BNP-220MC</t>
   </si>
   <si>
+    <t>IND_1212</t>
+  </si>
+  <si>
     <t>L2</t>
   </si>
   <si>
@@ -146,30 +140,30 @@
     <t>Q1, Q2</t>
   </si>
   <si>
-    <t>International Rectifier</t>
-  </si>
-  <si>
     <t>IRFR5305TRPBF</t>
   </si>
   <si>
+    <t>DPAK229P991X239-3M</t>
+  </si>
+  <si>
     <t>Q3</t>
   </si>
   <si>
-    <t>onsemi</t>
-  </si>
-  <si>
     <t>MMBT2222ALT1G</t>
   </si>
   <si>
+    <t>MMBT2222</t>
+  </si>
+  <si>
     <t>R1, R3</t>
   </si>
   <si>
-    <t>UNI-ROYAL(Uniroyal Elec)</t>
-  </si>
-  <si>
     <t>1206W4F400LT5E</t>
   </si>
   <si>
+    <t>RESC3116X06M</t>
+  </si>
+  <si>
     <t>R2, R4</t>
   </si>
   <si>
@@ -182,6 +176,9 @@
     <t>0603WAF330KT5E</t>
   </si>
   <si>
+    <t>RES_0603</t>
+  </si>
+  <si>
     <t>R6, R7, R15, R18</t>
   </si>
   <si>
@@ -239,21 +236,21 @@
     <t>SW1</t>
   </si>
   <si>
-    <t>XKB Connection</t>
-  </si>
-  <si>
     <t>XKBS22E05-Z</t>
   </si>
   <si>
+    <t>PBH2U</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>TOPPOWER(Nanjing Extension Microelectronics)</t>
-  </si>
-  <si>
     <t>TP5100</t>
   </si>
   <si>
+    <t>QFN65P400X400X90_HS-17M</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
@@ -263,22 +260,19 @@
     <t>U3</t>
   </si>
   <si>
-    <t>XLSEMI</t>
-  </si>
-  <si>
     <t>XL6019E1</t>
   </si>
   <si>
+    <t>DPAK171P1524X483-6M</t>
+  </si>
+  <si>
     <t>ZD1, ZD2</t>
   </si>
   <si>
-    <t>ST(Semtech)</t>
-  </si>
-  <si>
     <t>MM3Z15B</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>SOD323</t>
   </si>
 </sst>
 </file>
@@ -674,12 +668,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B76828-8965-408D-942F-8B798CE67095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0D80FA-1468-4F45-874F-E88EEF14A4E9}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,18 +691,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -755,371 +747,369 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
